--- a/img_data.xlsx
+++ b/img_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjrdu\Desktop\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD440C13-537C-4610-85C2-9C3081AD0543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C70263-5EC6-453F-967F-941C05E1500D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{208B9F45-ACA6-4FE5-9A4B-750A5D152D4B}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/img_data.xlsx
+++ b/img_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjrdu\Desktop\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C70263-5EC6-453F-967F-941C05E1500D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE3E55-55EA-4D88-A744-70B234B1A1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{208B9F45-ACA6-4FE5-9A4B-750A5D152D4B}"/>
   </bookViews>
@@ -298,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Somewher around mont blanc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Austria</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,10 +346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fribourg/Freibourg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gruyeres</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -524,6 +516,13 @@
   <si>
     <t>Racing_Track</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fribourg[Freibourg]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somewhere around mont blanc</t>
   </si>
 </sst>
 </file>
@@ -889,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACC7405-7547-4D96-B00A-ECE35A3D6EF6}">
   <dimension ref="A1:H317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -930,7 +929,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -950,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -970,7 +969,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -1033,7 +1032,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -1053,7 +1052,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -1073,7 +1072,7 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -1093,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -1113,7 +1112,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -1133,7 +1132,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1153,7 +1152,7 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1173,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1346,7 +1345,7 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -1366,7 +1365,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
@@ -1386,7 +1385,7 @@
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -1406,7 +1405,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -1426,7 +1425,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1636,7 +1635,7 @@
         <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1653,7 +1652,7 @@
         <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -1673,7 +1672,7 @@
         <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F42" t="s">
         <v>39</v>
@@ -1693,7 +1692,7 @@
         <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F43" t="s">
         <v>39</v>
@@ -1713,7 +1712,7 @@
         <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F44" t="s">
         <v>39</v>
@@ -1733,7 +1732,7 @@
         <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F45" t="s">
         <v>39</v>
@@ -1753,7 +1752,7 @@
         <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -1773,7 +1772,7 @@
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
@@ -2217,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2228,13 +2227,13 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" t="s">
         <v>67</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>68</v>
-      </c>
-      <c r="E78" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2245,13 +2244,13 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" t="s">
         <v>67</v>
       </c>
-      <c r="D79" t="s">
-        <v>68</v>
-      </c>
       <c r="E79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2282,7 +2281,7 @@
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2296,7 +2295,7 @@
         <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E82" t="s">
         <v>56</v>
@@ -2313,7 +2312,7 @@
         <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E83" t="s">
         <v>56</v>
@@ -2330,10 +2329,10 @@
         <v>25</v>
       </c>
       <c r="D84" t="s">
+        <v>71</v>
+      </c>
+      <c r="E84" t="s">
         <v>72</v>
-      </c>
-      <c r="E84" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2357,7 +2356,7 @@
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2376,7 +2375,7 @@
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2409,10 +2408,10 @@
         <v>5</v>
       </c>
       <c r="D92" t="s">
+        <v>74</v>
+      </c>
+      <c r="E92" t="s">
         <v>75</v>
-      </c>
-      <c r="E92" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2426,10 +2425,10 @@
         <v>5</v>
       </c>
       <c r="D93" t="s">
+        <v>74</v>
+      </c>
+      <c r="E93" t="s">
         <v>75</v>
-      </c>
-      <c r="E93" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2443,10 +2442,10 @@
         <v>5</v>
       </c>
       <c r="D94" t="s">
+        <v>74</v>
+      </c>
+      <c r="E94" t="s">
         <v>75</v>
-      </c>
-      <c r="E94" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2460,10 +2459,10 @@
         <v>5</v>
       </c>
       <c r="D95" t="s">
+        <v>74</v>
+      </c>
+      <c r="E95" t="s">
         <v>75</v>
-      </c>
-      <c r="E95" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2477,10 +2476,10 @@
         <v>5</v>
       </c>
       <c r="D96" t="s">
+        <v>74</v>
+      </c>
+      <c r="E96" t="s">
         <v>75</v>
-      </c>
-      <c r="E96" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2494,10 +2493,10 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
+        <v>74</v>
+      </c>
+      <c r="E97" t="s">
         <v>75</v>
-      </c>
-      <c r="E97" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2511,10 +2510,10 @@
         <v>5</v>
       </c>
       <c r="D98" t="s">
+        <v>74</v>
+      </c>
+      <c r="E98" t="s">
         <v>75</v>
-      </c>
-      <c r="E98" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2528,10 +2527,10 @@
         <v>5</v>
       </c>
       <c r="D99" t="s">
+        <v>74</v>
+      </c>
+      <c r="E99" t="s">
         <v>75</v>
-      </c>
-      <c r="E99" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -2545,10 +2544,10 @@
         <v>5</v>
       </c>
       <c r="D100" t="s">
+        <v>74</v>
+      </c>
+      <c r="E100" t="s">
         <v>75</v>
-      </c>
-      <c r="E100" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2562,10 +2561,10 @@
         <v>5</v>
       </c>
       <c r="D101" t="s">
+        <v>74</v>
+      </c>
+      <c r="E101" t="s">
         <v>75</v>
-      </c>
-      <c r="E101" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2579,7 +2578,7 @@
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -2593,10 +2592,10 @@
         <v>5</v>
       </c>
       <c r="D103" t="s">
+        <v>76</v>
+      </c>
+      <c r="E103" t="s">
         <v>77</v>
-      </c>
-      <c r="E103" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2610,10 +2609,10 @@
         <v>5</v>
       </c>
       <c r="D104" t="s">
+        <v>76</v>
+      </c>
+      <c r="E104" t="s">
         <v>77</v>
-      </c>
-      <c r="E104" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2627,7 +2626,7 @@
         <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2641,7 +2640,7 @@
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="E106" t="s">
         <v>34</v>
@@ -2658,10 +2657,10 @@
         <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E107" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2692,7 +2691,7 @@
         <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -2706,10 +2705,10 @@
         <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E110" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -2723,7 +2722,7 @@
         <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -2737,7 +2736,7 @@
         <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -2751,7 +2750,7 @@
         <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -2782,10 +2781,10 @@
         <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E115" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -2832,7 +2831,7 @@
         <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -2846,7 +2845,7 @@
         <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -2860,7 +2859,7 @@
         <v>49</v>
       </c>
       <c r="D121" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -2874,7 +2873,7 @@
         <v>49</v>
       </c>
       <c r="D122" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -2888,7 +2887,7 @@
         <v>49</v>
       </c>
       <c r="D123" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -2902,7 +2901,7 @@
         <v>49</v>
       </c>
       <c r="D124" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -2916,7 +2915,7 @@
         <v>49</v>
       </c>
       <c r="D125" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -2930,7 +2929,7 @@
         <v>49</v>
       </c>
       <c r="D126" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2944,7 +2943,7 @@
         <v>49</v>
       </c>
       <c r="D127" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -2958,7 +2957,7 @@
         <v>49</v>
       </c>
       <c r="D128" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2972,7 +2971,7 @@
         <v>49</v>
       </c>
       <c r="D129" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2986,7 +2985,7 @@
         <v>5</v>
       </c>
       <c r="D130" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3000,7 +2999,7 @@
         <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3014,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3028,7 +3027,7 @@
         <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3042,7 +3041,7 @@
         <v>5</v>
       </c>
       <c r="D134" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3094,7 +3093,7 @@
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3108,7 +3107,7 @@
         <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3119,10 +3118,10 @@
         <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D141" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3133,10 +3132,10 @@
         <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D142" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3147,10 +3146,10 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D143" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3161,10 +3160,10 @@
         <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D144" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -3175,10 +3174,10 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D145" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -3189,10 +3188,10 @@
         <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D146" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -3203,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D147" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -3217,10 +3216,10 @@
         <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D148" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -3231,10 +3230,10 @@
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D149" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -3245,10 +3244,10 @@
         <v>8</v>
       </c>
       <c r="C150" t="s">
+        <v>91</v>
+      </c>
+      <c r="D150" t="s">
         <v>93</v>
-      </c>
-      <c r="D150" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -3259,10 +3258,10 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
+        <v>91</v>
+      </c>
+      <c r="D151" t="s">
         <v>93</v>
-      </c>
-      <c r="D151" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -3273,10 +3272,10 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
+        <v>91</v>
+      </c>
+      <c r="D152" t="s">
         <v>93</v>
-      </c>
-      <c r="D152" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -3287,10 +3286,10 @@
         <v>8</v>
       </c>
       <c r="C153" t="s">
+        <v>91</v>
+      </c>
+      <c r="D153" t="s">
         <v>93</v>
-      </c>
-      <c r="D153" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -3304,7 +3303,7 @@
         <v>25</v>
       </c>
       <c r="D154" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -3318,7 +3317,7 @@
         <v>25</v>
       </c>
       <c r="D155" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -3332,10 +3331,10 @@
         <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E156" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -3349,10 +3348,10 @@
         <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E157" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -3369,7 +3368,7 @@
         <v>52</v>
       </c>
       <c r="E158" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -3386,7 +3385,7 @@
         <v>52</v>
       </c>
       <c r="E159" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -3403,7 +3402,7 @@
         <v>52</v>
       </c>
       <c r="E160" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -3414,13 +3413,13 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
+        <v>98</v>
+      </c>
+      <c r="D161" t="s">
+        <v>99</v>
+      </c>
+      <c r="E161" t="s">
         <v>100</v>
-      </c>
-      <c r="D161" t="s">
-        <v>101</v>
-      </c>
-      <c r="E161" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -3431,13 +3430,13 @@
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D162" t="s">
+        <v>99</v>
+      </c>
+      <c r="E162" t="s">
         <v>101</v>
-      </c>
-      <c r="E162" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -3448,13 +3447,13 @@
         <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D163" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E163" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -3465,13 +3464,13 @@
         <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D164" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E164" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -3482,10 +3481,10 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D165" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -3496,10 +3495,10 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D166" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -3535,7 +3534,7 @@
         <v>18</v>
       </c>
       <c r="E169" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -3673,7 +3672,7 @@
         <v>18</v>
       </c>
       <c r="E178" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -3690,7 +3689,7 @@
         <v>18</v>
       </c>
       <c r="E179" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -3712,7 +3711,7 @@
         <v>18</v>
       </c>
       <c r="E181" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -3729,7 +3728,7 @@
         <v>18</v>
       </c>
       <c r="E182" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -3746,7 +3745,7 @@
         <v>18</v>
       </c>
       <c r="E183" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -3763,7 +3762,7 @@
         <v>18</v>
       </c>
       <c r="E184" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -3780,7 +3779,7 @@
         <v>18</v>
       </c>
       <c r="E185" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -4094,7 +4093,7 @@
         <v>18</v>
       </c>
       <c r="E204" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -4125,7 +4124,7 @@
         <v>5</v>
       </c>
       <c r="E206" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -4136,7 +4135,7 @@
         <v>8</v>
       </c>
       <c r="E207" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -4147,10 +4146,10 @@
         <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E208" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -4158,13 +4157,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>108</v>
+      </c>
+      <c r="C209" t="s">
+        <v>109</v>
+      </c>
+      <c r="D209" t="s">
         <v>110</v>
-      </c>
-      <c r="C209" t="s">
-        <v>111</v>
-      </c>
-      <c r="D209" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4172,13 +4171,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
+        <v>108</v>
+      </c>
+      <c r="C210" t="s">
+        <v>109</v>
+      </c>
+      <c r="D210" t="s">
         <v>110</v>
-      </c>
-      <c r="C210" t="s">
-        <v>111</v>
-      </c>
-      <c r="D210" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4186,13 +4185,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
+        <v>108</v>
+      </c>
+      <c r="C211" t="s">
+        <v>109</v>
+      </c>
+      <c r="D211" t="s">
         <v>110</v>
-      </c>
-      <c r="C211" t="s">
-        <v>111</v>
-      </c>
-      <c r="D211" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4200,13 +4199,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>108</v>
+      </c>
+      <c r="C212" t="s">
+        <v>109</v>
+      </c>
+      <c r="D212" t="s">
         <v>110</v>
-      </c>
-      <c r="C212" t="s">
-        <v>111</v>
-      </c>
-      <c r="D212" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4214,13 +4213,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
+        <v>108</v>
+      </c>
+      <c r="C213" t="s">
+        <v>109</v>
+      </c>
+      <c r="D213" t="s">
         <v>110</v>
-      </c>
-      <c r="C213" t="s">
-        <v>111</v>
-      </c>
-      <c r="D213" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4228,13 +4227,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
+        <v>108</v>
+      </c>
+      <c r="C214" t="s">
+        <v>109</v>
+      </c>
+      <c r="D214" t="s">
         <v>110</v>
-      </c>
-      <c r="C214" t="s">
-        <v>111</v>
-      </c>
-      <c r="D214" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4242,13 +4241,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>108</v>
+      </c>
+      <c r="C215" t="s">
+        <v>109</v>
+      </c>
+      <c r="D215" t="s">
         <v>110</v>
-      </c>
-      <c r="C215" t="s">
-        <v>111</v>
-      </c>
-      <c r="D215" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4256,13 +4255,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>108</v>
+      </c>
+      <c r="C216" t="s">
+        <v>109</v>
+      </c>
+      <c r="D216" t="s">
         <v>110</v>
-      </c>
-      <c r="C216" t="s">
-        <v>111</v>
-      </c>
-      <c r="D216" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4270,13 +4269,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
+        <v>108</v>
+      </c>
+      <c r="C217" t="s">
+        <v>109</v>
+      </c>
+      <c r="D217" t="s">
         <v>110</v>
-      </c>
-      <c r="C217" t="s">
-        <v>111</v>
-      </c>
-      <c r="D217" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4284,13 +4283,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>108</v>
+      </c>
+      <c r="C218" t="s">
+        <v>109</v>
+      </c>
+      <c r="D218" t="s">
         <v>110</v>
-      </c>
-      <c r="C218" t="s">
-        <v>111</v>
-      </c>
-      <c r="D218" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4298,13 +4297,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
+        <v>108</v>
+      </c>
+      <c r="C219" t="s">
+        <v>109</v>
+      </c>
+      <c r="D219" t="s">
         <v>110</v>
-      </c>
-      <c r="C219" t="s">
-        <v>111</v>
-      </c>
-      <c r="D219" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4312,13 +4311,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C220" t="s">
+        <v>109</v>
+      </c>
+      <c r="D220" t="s">
         <v>111</v>
-      </c>
-      <c r="D220" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4326,13 +4325,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C221" t="s">
+        <v>109</v>
+      </c>
+      <c r="D221" t="s">
         <v>111</v>
-      </c>
-      <c r="D221" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4340,13 +4339,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C222" t="s">
+        <v>109</v>
+      </c>
+      <c r="D222" t="s">
         <v>111</v>
-      </c>
-      <c r="D222" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4354,13 +4353,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C223" t="s">
+        <v>109</v>
+      </c>
+      <c r="D223" t="s">
         <v>111</v>
-      </c>
-      <c r="D223" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4368,13 +4367,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C224" t="s">
+        <v>109</v>
+      </c>
+      <c r="D224" t="s">
         <v>111</v>
-      </c>
-      <c r="D224" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4382,13 +4381,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C225" t="s">
+        <v>109</v>
+      </c>
+      <c r="D225" t="s">
         <v>111</v>
-      </c>
-      <c r="D225" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4396,10 +4395,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C226" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4407,10 +4406,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C227" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4418,10 +4417,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C228" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4429,13 +4428,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
+        <v>108</v>
+      </c>
+      <c r="C229" t="s">
+        <v>109</v>
+      </c>
+      <c r="D229" t="s">
         <v>110</v>
-      </c>
-      <c r="C229" t="s">
-        <v>111</v>
-      </c>
-      <c r="D229" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4443,13 +4442,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
+        <v>108</v>
+      </c>
+      <c r="C230" t="s">
+        <v>109</v>
+      </c>
+      <c r="D230" t="s">
         <v>110</v>
-      </c>
-      <c r="C230" t="s">
-        <v>111</v>
-      </c>
-      <c r="D230" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4457,13 +4456,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
+        <v>108</v>
+      </c>
+      <c r="C231" t="s">
+        <v>109</v>
+      </c>
+      <c r="D231" t="s">
         <v>110</v>
-      </c>
-      <c r="C231" t="s">
-        <v>111</v>
-      </c>
-      <c r="D231" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4471,10 +4470,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C232" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4482,10 +4481,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C233" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4493,10 +4492,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C234" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4504,13 +4503,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
+        <v>108</v>
+      </c>
+      <c r="C235" t="s">
+        <v>109</v>
+      </c>
+      <c r="D235" t="s">
         <v>110</v>
-      </c>
-      <c r="C235" t="s">
-        <v>111</v>
-      </c>
-      <c r="D235" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4518,13 +4517,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
+        <v>108</v>
+      </c>
+      <c r="C236" t="s">
+        <v>109</v>
+      </c>
+      <c r="D236" t="s">
         <v>110</v>
-      </c>
-      <c r="C236" t="s">
-        <v>111</v>
-      </c>
-      <c r="D236" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4532,13 +4531,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
+        <v>108</v>
+      </c>
+      <c r="C237" t="s">
+        <v>109</v>
+      </c>
+      <c r="D237" t="s">
         <v>110</v>
-      </c>
-      <c r="C237" t="s">
-        <v>111</v>
-      </c>
-      <c r="D237" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4546,10 +4545,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C238" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4557,10 +4556,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C239" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4568,10 +4567,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C240" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4579,13 +4578,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
+        <v>108</v>
+      </c>
+      <c r="C241" t="s">
+        <v>109</v>
+      </c>
+      <c r="D241" t="s">
         <v>110</v>
-      </c>
-      <c r="C241" t="s">
-        <v>111</v>
-      </c>
-      <c r="D241" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4593,13 +4592,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
+        <v>108</v>
+      </c>
+      <c r="C242" t="s">
+        <v>109</v>
+      </c>
+      <c r="D242" t="s">
         <v>110</v>
-      </c>
-      <c r="C242" t="s">
-        <v>111</v>
-      </c>
-      <c r="D242" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4607,13 +4606,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
+        <v>108</v>
+      </c>
+      <c r="C243" t="s">
+        <v>109</v>
+      </c>
+      <c r="D243" t="s">
         <v>110</v>
-      </c>
-      <c r="C243" t="s">
-        <v>111</v>
-      </c>
-      <c r="D243" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4621,13 +4620,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>108</v>
+      </c>
+      <c r="C244" t="s">
+        <v>109</v>
+      </c>
+      <c r="D244" t="s">
         <v>110</v>
-      </c>
-      <c r="C244" t="s">
-        <v>111</v>
-      </c>
-      <c r="D244" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -4635,13 +4634,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>108</v>
+      </c>
+      <c r="C245" t="s">
+        <v>109</v>
+      </c>
+      <c r="D245" t="s">
         <v>110</v>
-      </c>
-      <c r="C245" t="s">
-        <v>111</v>
-      </c>
-      <c r="D245" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -4649,13 +4648,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
+        <v>108</v>
+      </c>
+      <c r="C246" t="s">
+        <v>109</v>
+      </c>
+      <c r="D246" t="s">
         <v>110</v>
-      </c>
-      <c r="C246" t="s">
-        <v>111</v>
-      </c>
-      <c r="D246" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -4663,13 +4662,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>108</v>
+      </c>
+      <c r="C247" t="s">
+        <v>109</v>
+      </c>
+      <c r="D247" t="s">
         <v>110</v>
-      </c>
-      <c r="C247" t="s">
-        <v>111</v>
-      </c>
-      <c r="D247" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4677,10 +4676,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C248" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -4688,10 +4687,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C249" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4699,10 +4698,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C250" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -4710,13 +4709,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
+        <v>108</v>
+      </c>
+      <c r="C251" t="s">
+        <v>109</v>
+      </c>
+      <c r="D251" t="s">
         <v>110</v>
-      </c>
-      <c r="C251" t="s">
-        <v>111</v>
-      </c>
-      <c r="D251" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4724,13 +4723,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
+        <v>108</v>
+      </c>
+      <c r="C252" t="s">
+        <v>109</v>
+      </c>
+      <c r="D252" t="s">
         <v>110</v>
-      </c>
-      <c r="C252" t="s">
-        <v>111</v>
-      </c>
-      <c r="D252" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4738,13 +4737,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
+        <v>108</v>
+      </c>
+      <c r="C253" t="s">
+        <v>109</v>
+      </c>
+      <c r="D253" t="s">
         <v>110</v>
-      </c>
-      <c r="C253" t="s">
-        <v>111</v>
-      </c>
-      <c r="D253" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -4752,13 +4751,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
+        <v>108</v>
+      </c>
+      <c r="C254" t="s">
+        <v>109</v>
+      </c>
+      <c r="D254" t="s">
         <v>110</v>
-      </c>
-      <c r="C254" t="s">
-        <v>111</v>
-      </c>
-      <c r="D254" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -4766,13 +4765,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
+        <v>108</v>
+      </c>
+      <c r="C255" t="s">
+        <v>109</v>
+      </c>
+      <c r="D255" t="s">
         <v>110</v>
-      </c>
-      <c r="C255" t="s">
-        <v>111</v>
-      </c>
-      <c r="D255" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4780,13 +4779,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
+        <v>108</v>
+      </c>
+      <c r="C256" t="s">
+        <v>109</v>
+      </c>
+      <c r="D256" t="s">
         <v>110</v>
-      </c>
-      <c r="C256" t="s">
-        <v>111</v>
-      </c>
-      <c r="D256" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4794,13 +4793,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
+        <v>108</v>
+      </c>
+      <c r="C257" t="s">
+        <v>109</v>
+      </c>
+      <c r="D257" t="s">
         <v>110</v>
-      </c>
-      <c r="C257" t="s">
-        <v>111</v>
-      </c>
-      <c r="D257" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4808,13 +4807,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
+        <v>108</v>
+      </c>
+      <c r="C258" t="s">
+        <v>109</v>
+      </c>
+      <c r="D258" t="s">
         <v>110</v>
-      </c>
-      <c r="C258" t="s">
-        <v>111</v>
-      </c>
-      <c r="D258" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -4822,13 +4821,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
+        <v>108</v>
+      </c>
+      <c r="C259" t="s">
+        <v>109</v>
+      </c>
+      <c r="D259" t="s">
         <v>110</v>
-      </c>
-      <c r="C259" t="s">
-        <v>111</v>
-      </c>
-      <c r="D259" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -4836,10 +4835,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C260" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -4847,10 +4846,10 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C261" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -4858,10 +4857,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C262" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -4869,10 +4868,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C263" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -4880,10 +4879,10 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C264" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -4891,10 +4890,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C265" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -4902,10 +4901,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C266" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -4913,13 +4912,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
+        <v>108</v>
+      </c>
+      <c r="C267" t="s">
+        <v>109</v>
+      </c>
+      <c r="D267" t="s">
         <v>110</v>
-      </c>
-      <c r="C267" t="s">
-        <v>111</v>
-      </c>
-      <c r="D267" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -4927,13 +4926,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
+        <v>108</v>
+      </c>
+      <c r="C268" t="s">
+        <v>109</v>
+      </c>
+      <c r="D268" t="s">
         <v>110</v>
-      </c>
-      <c r="C268" t="s">
-        <v>111</v>
-      </c>
-      <c r="D268" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -4941,13 +4940,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
+        <v>108</v>
+      </c>
+      <c r="C269" t="s">
+        <v>109</v>
+      </c>
+      <c r="D269" t="s">
         <v>110</v>
-      </c>
-      <c r="C269" t="s">
-        <v>111</v>
-      </c>
-      <c r="D269" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -4955,10 +4954,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C270" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -4966,13 +4965,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
+        <v>108</v>
+      </c>
+      <c r="C271" t="s">
+        <v>109</v>
+      </c>
+      <c r="D271" t="s">
         <v>110</v>
-      </c>
-      <c r="C271" t="s">
-        <v>111</v>
-      </c>
-      <c r="D271" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -4980,13 +4979,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
+        <v>108</v>
+      </c>
+      <c r="C272" t="s">
+        <v>109</v>
+      </c>
+      <c r="D272" t="s">
         <v>110</v>
-      </c>
-      <c r="C272" t="s">
-        <v>111</v>
-      </c>
-      <c r="D272" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -4994,10 +4993,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C273" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -5005,13 +5004,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C274" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D274" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5019,10 +5018,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C275" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -5030,13 +5029,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
+        <v>108</v>
+      </c>
+      <c r="C276" t="s">
+        <v>109</v>
+      </c>
+      <c r="D276" t="s">
         <v>110</v>
-      </c>
-      <c r="C276" t="s">
-        <v>111</v>
-      </c>
-      <c r="D276" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5044,10 +5043,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C277" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5055,10 +5054,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C278" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5066,13 +5065,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
+        <v>108</v>
+      </c>
+      <c r="C279" t="s">
+        <v>109</v>
+      </c>
+      <c r="D279" t="s">
         <v>110</v>
-      </c>
-      <c r="C279" t="s">
-        <v>111</v>
-      </c>
-      <c r="D279" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5080,10 +5079,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C280" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -5091,13 +5090,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
+        <v>108</v>
+      </c>
+      <c r="C281" t="s">
+        <v>109</v>
+      </c>
+      <c r="D281" t="s">
         <v>110</v>
-      </c>
-      <c r="C281" t="s">
-        <v>111</v>
-      </c>
-      <c r="D281" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5105,10 +5104,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C282" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5116,13 +5115,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
+        <v>108</v>
+      </c>
+      <c r="C283" t="s">
+        <v>109</v>
+      </c>
+      <c r="D283" t="s">
         <v>110</v>
-      </c>
-      <c r="C283" t="s">
-        <v>111</v>
-      </c>
-      <c r="D283" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5130,10 +5129,10 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C284" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5141,10 +5140,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C285" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5152,10 +5151,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C286" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5163,10 +5162,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C287" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5174,10 +5173,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C288" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5185,10 +5184,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C289" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5196,10 +5195,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C290" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5207,10 +5206,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C291" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5218,10 +5217,10 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C292" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -5229,10 +5228,10 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C293" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5240,13 +5239,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
+        <v>108</v>
+      </c>
+      <c r="C294" t="s">
+        <v>109</v>
+      </c>
+      <c r="D294" t="s">
         <v>110</v>
-      </c>
-      <c r="C294" t="s">
-        <v>111</v>
-      </c>
-      <c r="D294" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5254,13 +5253,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
+        <v>108</v>
+      </c>
+      <c r="C295" t="s">
+        <v>109</v>
+      </c>
+      <c r="D295" t="s">
         <v>110</v>
-      </c>
-      <c r="C295" t="s">
-        <v>111</v>
-      </c>
-      <c r="D295" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5268,13 +5267,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
+        <v>108</v>
+      </c>
+      <c r="C296" t="s">
+        <v>109</v>
+      </c>
+      <c r="D296" t="s">
         <v>110</v>
-      </c>
-      <c r="C296" t="s">
-        <v>111</v>
-      </c>
-      <c r="D296" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5282,13 +5281,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
+        <v>108</v>
+      </c>
+      <c r="C297" t="s">
+        <v>109</v>
+      </c>
+      <c r="D297" t="s">
         <v>110</v>
-      </c>
-      <c r="C297" t="s">
-        <v>111</v>
-      </c>
-      <c r="D297" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5296,13 +5295,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
+        <v>108</v>
+      </c>
+      <c r="C298" t="s">
+        <v>109</v>
+      </c>
+      <c r="D298" t="s">
         <v>110</v>
-      </c>
-      <c r="C298" t="s">
-        <v>111</v>
-      </c>
-      <c r="D298" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5310,13 +5309,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
+        <v>108</v>
+      </c>
+      <c r="C299" t="s">
+        <v>109</v>
+      </c>
+      <c r="D299" t="s">
         <v>110</v>
-      </c>
-      <c r="C299" t="s">
-        <v>111</v>
-      </c>
-      <c r="D299" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5324,13 +5323,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
+        <v>108</v>
+      </c>
+      <c r="C300" t="s">
+        <v>109</v>
+      </c>
+      <c r="D300" t="s">
         <v>110</v>
-      </c>
-      <c r="C300" t="s">
-        <v>111</v>
-      </c>
-      <c r="D300" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5338,13 +5337,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
+        <v>108</v>
+      </c>
+      <c r="C301" t="s">
+        <v>109</v>
+      </c>
+      <c r="D301" t="s">
         <v>110</v>
-      </c>
-      <c r="C301" t="s">
-        <v>111</v>
-      </c>
-      <c r="D301" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5352,13 +5351,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
+        <v>108</v>
+      </c>
+      <c r="C302" t="s">
+        <v>109</v>
+      </c>
+      <c r="D302" t="s">
         <v>110</v>
-      </c>
-      <c r="C302" t="s">
-        <v>111</v>
-      </c>
-      <c r="D302" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5366,13 +5365,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
+        <v>108</v>
+      </c>
+      <c r="C303" t="s">
+        <v>109</v>
+      </c>
+      <c r="D303" t="s">
         <v>110</v>
-      </c>
-      <c r="C303" t="s">
-        <v>111</v>
-      </c>
-      <c r="D303" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5380,13 +5379,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C304" t="s">
+        <v>109</v>
+      </c>
+      <c r="D304" t="s">
         <v>111</v>
-      </c>
-      <c r="D304" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5394,13 +5393,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C305" t="s">
+        <v>109</v>
+      </c>
+      <c r="D305" t="s">
         <v>111</v>
-      </c>
-      <c r="D305" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5408,13 +5407,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C306" t="s">
+        <v>109</v>
+      </c>
+      <c r="D306" t="s">
         <v>111</v>
-      </c>
-      <c r="D306" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5422,13 +5421,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C307" t="s">
+        <v>109</v>
+      </c>
+      <c r="D307" t="s">
         <v>111</v>
-      </c>
-      <c r="D307" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5436,13 +5435,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C308" t="s">
+        <v>109</v>
+      </c>
+      <c r="D308" t="s">
         <v>111</v>
-      </c>
-      <c r="D308" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5450,13 +5449,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C309" t="s">
+        <v>109</v>
+      </c>
+      <c r="D309" t="s">
         <v>111</v>
-      </c>
-      <c r="D309" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5464,13 +5463,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C310" t="s">
+        <v>109</v>
+      </c>
+      <c r="D310" t="s">
         <v>111</v>
-      </c>
-      <c r="D310" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5478,10 +5477,10 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C311" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5489,13 +5488,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C312" t="s">
+        <v>109</v>
+      </c>
+      <c r="D312" t="s">
         <v>111</v>
-      </c>
-      <c r="D312" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5503,13 +5502,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C313" t="s">
+        <v>109</v>
+      </c>
+      <c r="D313" t="s">
         <v>111</v>
-      </c>
-      <c r="D313" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5517,13 +5516,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C314" t="s">
+        <v>109</v>
+      </c>
+      <c r="D314" t="s">
         <v>111</v>
-      </c>
-      <c r="D314" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -5531,10 +5530,10 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C315" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -5542,13 +5541,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
+        <v>108</v>
+      </c>
+      <c r="C316" t="s">
+        <v>109</v>
+      </c>
+      <c r="D316" t="s">
         <v>110</v>
-      </c>
-      <c r="C316" t="s">
-        <v>111</v>
-      </c>
-      <c r="D316" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -5556,13 +5555,13 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
+        <v>108</v>
+      </c>
+      <c r="C317" t="s">
+        <v>109</v>
+      </c>
+      <c r="D317" t="s">
         <v>110</v>
-      </c>
-      <c r="C317" t="s">
-        <v>111</v>
-      </c>
-      <c r="D317" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/img_data.xlsx
+++ b/img_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjrdu\Desktop\HTML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjrdu\Desktop\Coding\Web\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFE3E55-55EA-4D88-A744-70B234B1A1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3822E84E-5CF0-4D69-92DC-BFCE39667D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{208B9F45-ACA6-4FE5-9A4B-750A5D152D4B}"/>
+    <workbookView xWindow="29970" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{208B9F45-ACA6-4FE5-9A4B-750A5D152D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,10 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sejoing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Busan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,6 +519,9 @@
   </si>
   <si>
     <t>Somewhere around mont blanc</t>
+  </si>
+  <si>
+    <t>Sejong</t>
   </si>
 </sst>
 </file>
@@ -889,7 +888,7 @@
   <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -929,7 +928,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -949,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -969,7 +968,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -1032,7 +1031,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -1052,7 +1051,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -1072,7 +1071,7 @@
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -1092,7 +1091,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -1112,7 +1111,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -1132,7 +1131,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1152,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1172,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1345,7 +1344,7 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -1365,7 +1364,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
@@ -1385,7 +1384,7 @@
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -1405,7 +1404,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -1425,7 +1424,7 @@
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1635,7 +1634,7 @@
         <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1652,7 +1651,7 @@
         <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -1672,7 +1671,7 @@
         <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F42" t="s">
         <v>39</v>
@@ -1692,7 +1691,7 @@
         <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F43" t="s">
         <v>39</v>
@@ -1712,7 +1711,7 @@
         <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F44" t="s">
         <v>39</v>
@@ -1732,7 +1731,7 @@
         <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F45" t="s">
         <v>39</v>
@@ -1752,7 +1751,7 @@
         <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -1772,7 +1771,7 @@
         <v>40</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
@@ -2216,7 +2215,7 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2626,7 +2625,7 @@
         <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2640,7 +2639,7 @@
         <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E106" t="s">
         <v>34</v>
@@ -4163,7 +4162,7 @@
         <v>109</v>
       </c>
       <c r="D209" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4177,7 +4176,7 @@
         <v>109</v>
       </c>
       <c r="D210" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4191,7 +4190,7 @@
         <v>109</v>
       </c>
       <c r="D211" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4205,7 +4204,7 @@
         <v>109</v>
       </c>
       <c r="D212" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4219,7 +4218,7 @@
         <v>109</v>
       </c>
       <c r="D213" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4233,7 +4232,7 @@
         <v>109</v>
       </c>
       <c r="D214" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4247,7 +4246,7 @@
         <v>109</v>
       </c>
       <c r="D215" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4261,7 +4260,7 @@
         <v>109</v>
       </c>
       <c r="D216" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4275,7 +4274,7 @@
         <v>109</v>
       </c>
       <c r="D217" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4289,7 +4288,7 @@
         <v>109</v>
       </c>
       <c r="D218" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4303,7 +4302,7 @@
         <v>109</v>
       </c>
       <c r="D219" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4317,7 +4316,7 @@
         <v>109</v>
       </c>
       <c r="D220" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4331,7 +4330,7 @@
         <v>109</v>
       </c>
       <c r="D221" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4345,7 +4344,7 @@
         <v>109</v>
       </c>
       <c r="D222" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4359,7 +4358,7 @@
         <v>109</v>
       </c>
       <c r="D223" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4373,7 +4372,7 @@
         <v>109</v>
       </c>
       <c r="D224" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4387,7 +4386,7 @@
         <v>109</v>
       </c>
       <c r="D225" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4434,7 +4433,7 @@
         <v>109</v>
       </c>
       <c r="D229" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4448,7 +4447,7 @@
         <v>109</v>
       </c>
       <c r="D230" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4462,7 +4461,7 @@
         <v>109</v>
       </c>
       <c r="D231" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4509,7 +4508,7 @@
         <v>109</v>
       </c>
       <c r="D235" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4523,7 +4522,7 @@
         <v>109</v>
       </c>
       <c r="D236" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4537,7 +4536,7 @@
         <v>109</v>
       </c>
       <c r="D237" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4584,7 +4583,7 @@
         <v>109</v>
       </c>
       <c r="D241" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4598,7 +4597,7 @@
         <v>109</v>
       </c>
       <c r="D242" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4612,7 +4611,7 @@
         <v>109</v>
       </c>
       <c r="D243" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4626,7 +4625,7 @@
         <v>109</v>
       </c>
       <c r="D244" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -4640,7 +4639,7 @@
         <v>109</v>
       </c>
       <c r="D245" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -4654,7 +4653,7 @@
         <v>109</v>
       </c>
       <c r="D246" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -4668,7 +4667,7 @@
         <v>109</v>
       </c>
       <c r="D247" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4715,7 +4714,7 @@
         <v>109</v>
       </c>
       <c r="D251" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4729,7 +4728,7 @@
         <v>109</v>
       </c>
       <c r="D252" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4743,7 +4742,7 @@
         <v>109</v>
       </c>
       <c r="D253" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -4757,7 +4756,7 @@
         <v>109</v>
       </c>
       <c r="D254" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -4771,7 +4770,7 @@
         <v>109</v>
       </c>
       <c r="D255" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4785,7 +4784,7 @@
         <v>109</v>
       </c>
       <c r="D256" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4799,7 +4798,7 @@
         <v>109</v>
       </c>
       <c r="D257" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4813,7 +4812,7 @@
         <v>109</v>
       </c>
       <c r="D258" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -4827,7 +4826,7 @@
         <v>109</v>
       </c>
       <c r="D259" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -4918,7 +4917,7 @@
         <v>109</v>
       </c>
       <c r="D267" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -4932,7 +4931,7 @@
         <v>109</v>
       </c>
       <c r="D268" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -4946,7 +4945,7 @@
         <v>109</v>
       </c>
       <c r="D269" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -4971,7 +4970,7 @@
         <v>109</v>
       </c>
       <c r="D271" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -4985,7 +4984,7 @@
         <v>109</v>
       </c>
       <c r="D272" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5010,7 +5009,7 @@
         <v>109</v>
       </c>
       <c r="D274" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5035,7 +5034,7 @@
         <v>109</v>
       </c>
       <c r="D276" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5071,7 +5070,7 @@
         <v>109</v>
       </c>
       <c r="D279" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5096,7 +5095,7 @@
         <v>109</v>
       </c>
       <c r="D281" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5121,7 +5120,7 @@
         <v>109</v>
       </c>
       <c r="D283" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5245,7 +5244,7 @@
         <v>109</v>
       </c>
       <c r="D294" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5259,7 +5258,7 @@
         <v>109</v>
       </c>
       <c r="D295" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5273,7 +5272,7 @@
         <v>109</v>
       </c>
       <c r="D296" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5287,7 +5286,7 @@
         <v>109</v>
       </c>
       <c r="D297" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5301,7 +5300,7 @@
         <v>109</v>
       </c>
       <c r="D298" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5315,7 +5314,7 @@
         <v>109</v>
       </c>
       <c r="D299" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5329,7 +5328,7 @@
         <v>109</v>
       </c>
       <c r="D300" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5343,7 +5342,7 @@
         <v>109</v>
       </c>
       <c r="D301" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5357,7 +5356,7 @@
         <v>109</v>
       </c>
       <c r="D302" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5371,7 +5370,7 @@
         <v>109</v>
       </c>
       <c r="D303" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5385,7 +5384,7 @@
         <v>109</v>
       </c>
       <c r="D304" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5399,7 +5398,7 @@
         <v>109</v>
       </c>
       <c r="D305" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5413,7 +5412,7 @@
         <v>109</v>
       </c>
       <c r="D306" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5427,7 +5426,7 @@
         <v>109</v>
       </c>
       <c r="D307" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5441,7 +5440,7 @@
         <v>109</v>
       </c>
       <c r="D308" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5455,7 +5454,7 @@
         <v>109</v>
       </c>
       <c r="D309" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5469,7 +5468,7 @@
         <v>109</v>
       </c>
       <c r="D310" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5494,7 +5493,7 @@
         <v>109</v>
       </c>
       <c r="D312" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5508,7 +5507,7 @@
         <v>109</v>
       </c>
       <c r="D313" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5522,7 +5521,7 @@
         <v>109</v>
       </c>
       <c r="D314" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -5547,7 +5546,7 @@
         <v>109</v>
       </c>
       <c r="D316" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -5561,7 +5560,7 @@
         <v>109</v>
       </c>
       <c r="D317" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
